--- a/cmip6/conformances/cmip6-ipsl-conformances-stage-one.xlsx
+++ b/cmip6/conformances/cmip6-ipsl-conformances-stage-one.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Default conformances to commonly-applicable forcing constraints" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Default conformances to commonl" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="336">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Institute Conformance to Experimental Requirements: Stage 1</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">ENUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULLY</t>
   </si>
   <si>
     <t xml:space="preserve">Further description providing context for the answer above. If you answered PARTIALLY above, answering this is required to cover to what extent it only partially conformed, else this is optional. In particular, if there are datasets (including details of any modifications made to them) that were used for conforming to the target requirement, please document these in free-form format.</t>
@@ -191,6 +194,9 @@
 Provide aerosol fields for models without interactive aerosol code or for high resolution AOGCM simulations without aerosol and atmospheric chemistry.</t>
   </si>
   <si>
+    <t xml:space="preserve">NOT APPLICABLE (no experiments were run that used this requirement).</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1.8</t>
   </si>
   <si>
@@ -378,6 +384,9 @@
 Cosmic rays (CR, predominantly protons and alpha particles) - also modulated by the Sun - are the main source of ionization in the troposphere and lower stratosphere. While the connection between CR ionization and cloud production and therefore convection is still under debate, its chemical impact via ozone-depleting catalytic cycles and subsequent dynamical forcing are rather well understood (Callisto et al., 2011). </t>
   </si>
   <si>
+    <t xml:space="preserve">NOT AT ALL (unable to conform - optionally provide a description to cover why).</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1.22</t>
   </si>
   <si>
@@ -511,6 +520,12 @@
 Represents a very low forcing scenario with the goal of limiting global mean warming to 1.5°C above pre-industrial levels based on the Paris COP21 agreement. </t>
   </si>
   <si>
+    <t xml:space="preserve">PARTIALLY (please provide details in the description below).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack Nhy.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.2</t>
   </si>
   <si>
@@ -535,6 +550,9 @@
   <si>
     <t xml:space="preserve">Description:
 Impose changing emissions of RCP1.9 short lived gas species including CH4, NOx, VOCs and CO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did consider CH4 but took the O3 files.</t>
   </si>
   <si>
     <t xml:space="preserve">1.2.4</t>
@@ -1475,12 +1493,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1546,23 +1564,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="122.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="6" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="2" width="8.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="256" min="6" style="1" width="8.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="257" style="2" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1719,24 +1737,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A902" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B761" activeCellId="0" sqref="B761"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.328125" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="38.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="85.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="5" style="2" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="2" width="10.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="5" style="2" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="2" width="10.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1844,7 +1862,9 @@
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
@@ -1855,14 +1875,14 @@
     </row>
     <row r="16" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -1875,10 +1895,10 @@
     </row>
     <row r="19" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1886,7 +1906,7 @@
     <row r="20" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="23"/>
       <c r="B20" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1900,7 +1920,7 @@
     <row r="22" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="23"/>
       <c r="B22" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -1908,7 +1928,7 @@
     <row r="23" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="23"/>
       <c r="B23" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1931,7 +1951,9 @@
       <c r="A26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
     </row>
@@ -1942,14 +1964,14 @@
     </row>
     <row r="28" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -1962,10 +1984,10 @@
     </row>
     <row r="31" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -1973,7 +1995,7 @@
     <row r="32" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
@@ -1987,7 +2009,7 @@
     <row r="34" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23"/>
       <c r="B34" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -1995,7 +2017,7 @@
     <row r="35" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23"/>
       <c r="B35" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -2018,7 +2040,9 @@
       <c r="A38" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
     </row>
@@ -2029,14 +2053,14 @@
     </row>
     <row r="40" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -2049,10 +2073,10 @@
     </row>
     <row r="43" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -2060,7 +2084,7 @@
     <row r="44" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23"/>
       <c r="B44" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -2074,7 +2098,7 @@
     <row r="46" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23"/>
       <c r="B46" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -2103,7 +2127,9 @@
       <c r="A50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="26"/>
+      <c r="B50" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
     </row>
@@ -2114,14 +2140,14 @@
     </row>
     <row r="52" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -2134,10 +2160,10 @@
     </row>
     <row r="55" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -2145,7 +2171,7 @@
     <row r="56" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23"/>
       <c r="B56" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -2159,7 +2185,7 @@
     <row r="58" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23"/>
       <c r="B58" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -2167,7 +2193,7 @@
     <row r="59" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23"/>
       <c r="B59" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -2190,7 +2216,9 @@
       <c r="A62" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
     </row>
@@ -2201,14 +2229,14 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -2221,10 +2249,10 @@
     </row>
     <row r="67" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -2232,7 +2260,7 @@
     <row r="68" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23"/>
       <c r="B68" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
@@ -2246,7 +2274,7 @@
     <row r="70" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23"/>
       <c r="B70" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -2275,7 +2303,9 @@
       <c r="A74" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
     </row>
@@ -2286,14 +2316,14 @@
     </row>
     <row r="76" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
     </row>
     <row r="77" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -2306,10 +2336,10 @@
     </row>
     <row r="79" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -2317,7 +2347,7 @@
     <row r="80" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -2331,7 +2361,7 @@
     <row r="82" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23"/>
       <c r="B82" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -2339,7 +2369,7 @@
     <row r="83" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23"/>
       <c r="B83" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
@@ -2362,7 +2392,9 @@
       <c r="A86" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="26"/>
+      <c r="B86" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
     </row>
@@ -2373,14 +2405,14 @@
     </row>
     <row r="88" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
     </row>
     <row r="89" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -2393,10 +2425,10 @@
     </row>
     <row r="91" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -2404,7 +2436,7 @@
     <row r="92" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23"/>
       <c r="B92" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
@@ -2418,7 +2450,7 @@
     <row r="94" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23"/>
       <c r="B94" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
@@ -2426,7 +2458,7 @@
     <row r="95" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23"/>
       <c r="B95" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
@@ -2449,7 +2481,9 @@
       <c r="A98" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="26"/>
+      <c r="B98" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
     </row>
@@ -2460,14 +2494,14 @@
     </row>
     <row r="100" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
     </row>
     <row r="101" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
@@ -2480,10 +2514,10 @@
     </row>
     <row r="103" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -2491,7 +2525,7 @@
     <row r="104" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23"/>
       <c r="B104" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
@@ -2505,7 +2539,7 @@
     <row r="106" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23"/>
       <c r="B106" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -2513,7 +2547,7 @@
     <row r="107" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23"/>
       <c r="B107" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
@@ -2536,7 +2570,9 @@
       <c r="A110" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B110" s="26"/>
+      <c r="B110" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
     </row>
@@ -2547,14 +2583,14 @@
     </row>
     <row r="112" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
     </row>
     <row r="113" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
@@ -2567,10 +2603,10 @@
     </row>
     <row r="115" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
@@ -2578,7 +2614,7 @@
     <row r="116" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23"/>
       <c r="B116" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
@@ -2592,7 +2628,7 @@
     <row r="118" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23"/>
       <c r="B118" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
@@ -2621,7 +2657,9 @@
       <c r="A122" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="26"/>
+      <c r="B122" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C122" s="26"/>
       <c r="D122" s="26"/>
     </row>
@@ -2632,14 +2670,14 @@
     </row>
     <row r="124" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
     <row r="125" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="26"/>
@@ -2652,10 +2690,10 @@
     </row>
     <row r="127" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
@@ -2663,7 +2701,7 @@
     <row r="128" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23"/>
       <c r="B128" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
@@ -2677,7 +2715,7 @@
     <row r="130" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23"/>
       <c r="B130" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
@@ -2685,7 +2723,7 @@
     <row r="131" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="23"/>
       <c r="B131" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
@@ -2708,7 +2746,9 @@
       <c r="A134" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B134" s="26"/>
+      <c r="B134" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C134" s="26"/>
       <c r="D134" s="26"/>
     </row>
@@ -2719,14 +2759,14 @@
     </row>
     <row r="136" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
     <row r="137" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
@@ -2739,10 +2779,10 @@
     </row>
     <row r="139" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
@@ -2750,7 +2790,7 @@
     <row r="140" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="23"/>
       <c r="B140" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
@@ -2764,7 +2804,7 @@
     <row r="142" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="23"/>
       <c r="B142" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
@@ -2772,7 +2812,7 @@
     <row r="143" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="23"/>
       <c r="B143" s="25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
@@ -2795,7 +2835,9 @@
       <c r="A146" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B146" s="26"/>
+      <c r="B146" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C146" s="26"/>
       <c r="D146" s="26"/>
     </row>
@@ -2806,14 +2848,14 @@
     </row>
     <row r="148" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148" s="24"/>
       <c r="D148" s="24"/>
     </row>
     <row r="149" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
@@ -2826,10 +2868,10 @@
     </row>
     <row r="151" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
@@ -2837,7 +2879,7 @@
     <row r="152" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="23"/>
       <c r="B152" s="24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
@@ -2851,7 +2893,7 @@
     <row r="154" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="23"/>
       <c r="B154" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
@@ -2859,7 +2901,7 @@
     <row r="155" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="23"/>
       <c r="B155" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
@@ -2882,7 +2924,9 @@
       <c r="A158" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B158" s="26"/>
+      <c r="B158" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
     </row>
@@ -2893,14 +2937,14 @@
     </row>
     <row r="160" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C160" s="24"/>
       <c r="D160" s="24"/>
     </row>
     <row r="161" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
@@ -2913,10 +2957,10 @@
     </row>
     <row r="163" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
@@ -2924,7 +2968,7 @@
     <row r="164" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="23"/>
       <c r="B164" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C164" s="24"/>
       <c r="D164" s="24"/>
@@ -2938,7 +2982,7 @@
     <row r="166" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="23"/>
       <c r="B166" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
@@ -2946,7 +2990,7 @@
     <row r="167" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="23"/>
       <c r="B167" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
@@ -2969,7 +3013,9 @@
       <c r="A170" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="26"/>
+      <c r="B170" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
     </row>
@@ -2980,14 +3026,14 @@
     </row>
     <row r="172" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="24"/>
     </row>
     <row r="173" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B173" s="26"/>
       <c r="C173" s="26"/>
@@ -3000,10 +3046,10 @@
     </row>
     <row r="175" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="22"/>
@@ -3011,7 +3057,7 @@
     <row r="176" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="23"/>
       <c r="B176" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="24"/>
@@ -3025,7 +3071,7 @@
     <row r="178" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="23"/>
       <c r="B178" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
@@ -3033,7 +3079,7 @@
     <row r="179" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="23"/>
       <c r="B179" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C179" s="25"/>
       <c r="D179" s="25"/>
@@ -3056,7 +3102,9 @@
       <c r="A182" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B182" s="26"/>
+      <c r="B182" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
     </row>
@@ -3067,14 +3115,14 @@
     </row>
     <row r="184" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="24"/>
     </row>
     <row r="185" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B185" s="26"/>
       <c r="C185" s="26"/>
@@ -3087,10 +3135,10 @@
     </row>
     <row r="187" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="22"/>
@@ -3098,7 +3146,7 @@
     <row r="188" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="23"/>
       <c r="B188" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="24"/>
@@ -3112,7 +3160,7 @@
     <row r="190" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="23"/>
       <c r="B190" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
@@ -3120,7 +3168,7 @@
     <row r="191" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="23"/>
       <c r="B191" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
@@ -3143,7 +3191,9 @@
       <c r="A194" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B194" s="26"/>
+      <c r="B194" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
     </row>
@@ -3154,14 +3204,14 @@
     </row>
     <row r="196" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="24"/>
     </row>
     <row r="197" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B197" s="26"/>
       <c r="C197" s="26"/>
@@ -3174,10 +3224,10 @@
     </row>
     <row r="199" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
@@ -3185,7 +3235,7 @@
     <row r="200" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="23"/>
       <c r="B200" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="24"/>
@@ -3199,7 +3249,7 @@
     <row r="202" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="23"/>
       <c r="B202" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C202" s="25"/>
       <c r="D202" s="25"/>
@@ -3207,7 +3257,7 @@
     <row r="203" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="23"/>
       <c r="B203" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C203" s="25"/>
       <c r="D203" s="25"/>
@@ -3230,7 +3280,9 @@
       <c r="A206" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B206" s="26"/>
+      <c r="B206" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C206" s="26"/>
       <c r="D206" s="26"/>
     </row>
@@ -3241,14 +3293,14 @@
     </row>
     <row r="208" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B208" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
     </row>
     <row r="209" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B209" s="26"/>
       <c r="C209" s="26"/>
@@ -3261,10 +3313,10 @@
     </row>
     <row r="211" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
@@ -3272,7 +3324,7 @@
     <row r="212" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="23"/>
       <c r="B212" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="24"/>
@@ -3286,7 +3338,7 @@
     <row r="214" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="23"/>
       <c r="B214" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C214" s="25"/>
       <c r="D214" s="25"/>
@@ -3294,7 +3346,7 @@
     <row r="215" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="23"/>
       <c r="B215" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C215" s="25"/>
       <c r="D215" s="25"/>
@@ -3317,7 +3369,9 @@
       <c r="A218" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B218" s="26"/>
+      <c r="B218" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C218" s="26"/>
       <c r="D218" s="26"/>
     </row>
@@ -3328,14 +3382,14 @@
     </row>
     <row r="220" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B220" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="24"/>
     </row>
     <row r="221" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B221" s="26"/>
       <c r="C221" s="26"/>
@@ -3348,10 +3402,10 @@
     </row>
     <row r="223" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
@@ -3359,7 +3413,7 @@
     <row r="224" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="23"/>
       <c r="B224" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C224" s="24"/>
       <c r="D224" s="24"/>
@@ -3373,7 +3427,7 @@
     <row r="226" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="23"/>
       <c r="B226" s="25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C226" s="25"/>
       <c r="D226" s="25"/>
@@ -3381,7 +3435,7 @@
     <row r="227" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="23"/>
       <c r="B227" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C227" s="25"/>
       <c r="D227" s="25"/>
@@ -3404,7 +3458,9 @@
       <c r="A230" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B230" s="26"/>
+      <c r="B230" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C230" s="26"/>
       <c r="D230" s="26"/>
     </row>
@@ -3415,14 +3471,14 @@
     </row>
     <row r="232" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B232" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C232" s="24"/>
       <c r="D232" s="24"/>
     </row>
     <row r="233" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B233" s="26"/>
       <c r="C233" s="26"/>
@@ -3435,10 +3491,10 @@
     </row>
     <row r="235" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C235" s="22"/>
       <c r="D235" s="22"/>
@@ -3446,7 +3502,7 @@
     <row r="236" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="23"/>
       <c r="B236" s="24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C236" s="24"/>
       <c r="D236" s="24"/>
@@ -3460,7 +3516,7 @@
     <row r="238" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="23"/>
       <c r="B238" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -3468,7 +3524,7 @@
     <row r="239" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="23"/>
       <c r="B239" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -3491,7 +3547,9 @@
       <c r="A242" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B242" s="26"/>
+      <c r="B242" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C242" s="26"/>
       <c r="D242" s="26"/>
     </row>
@@ -3502,14 +3560,14 @@
     </row>
     <row r="244" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B244" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C244" s="24"/>
       <c r="D244" s="24"/>
     </row>
     <row r="245" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
@@ -3522,10 +3580,10 @@
     </row>
     <row r="247" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B247" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22"/>
@@ -3533,7 +3591,7 @@
     <row r="248" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="23"/>
       <c r="B248" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="24"/>
@@ -3547,7 +3605,7 @@
     <row r="250" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="23"/>
       <c r="B250" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -3555,7 +3613,7 @@
     <row r="251" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="23"/>
       <c r="B251" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -3578,7 +3636,9 @@
       <c r="A254" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B254" s="26"/>
+      <c r="B254" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C254" s="26"/>
       <c r="D254" s="26"/>
     </row>
@@ -3589,14 +3649,14 @@
     </row>
     <row r="256" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B256" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C256" s="24"/>
       <c r="D256" s="24"/>
     </row>
     <row r="257" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
@@ -3609,10 +3669,10 @@
     </row>
     <row r="259" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C259" s="22"/>
       <c r="D259" s="22"/>
@@ -3620,7 +3680,7 @@
     <row r="260" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="23"/>
       <c r="B260" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="24"/>
@@ -3634,7 +3694,7 @@
     <row r="262" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="23"/>
       <c r="B262" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C262" s="25"/>
       <c r="D262" s="25"/>
@@ -3642,7 +3702,7 @@
     <row r="263" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="23"/>
       <c r="B263" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -3665,7 +3725,9 @@
       <c r="A266" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B266" s="26"/>
+      <c r="B266" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C266" s="26"/>
       <c r="D266" s="26"/>
     </row>
@@ -3676,14 +3738,14 @@
     </row>
     <row r="268" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B268" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="24"/>
     </row>
     <row r="269" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -3696,10 +3758,10 @@
     </row>
     <row r="271" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C271" s="22"/>
       <c r="D271" s="22"/>
@@ -3707,7 +3769,7 @@
     <row r="272" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="23"/>
       <c r="B272" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C272" s="24"/>
       <c r="D272" s="24"/>
@@ -3721,7 +3783,7 @@
     <row r="274" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="23"/>
       <c r="B274" s="25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -3729,7 +3791,7 @@
     <row r="275" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="23"/>
       <c r="B275" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="25"/>
@@ -3752,7 +3814,9 @@
       <c r="A278" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B278" s="26"/>
+      <c r="B278" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C278" s="26"/>
       <c r="D278" s="26"/>
     </row>
@@ -3763,14 +3827,14 @@
     </row>
     <row r="280" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B280" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="24"/>
     </row>
     <row r="281" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -3783,10 +3847,10 @@
     </row>
     <row r="283" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C283" s="22"/>
       <c r="D283" s="22"/>
@@ -3794,7 +3858,7 @@
     <row r="284" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="23"/>
       <c r="B284" s="24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="24"/>
@@ -3808,7 +3872,7 @@
     <row r="286" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="23"/>
       <c r="B286" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -3816,7 +3880,7 @@
     <row r="287" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="23"/>
       <c r="B287" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -3839,7 +3903,9 @@
       <c r="A290" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B290" s="26"/>
+      <c r="B290" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C290" s="26"/>
       <c r="D290" s="26"/>
     </row>
@@ -3850,14 +3916,14 @@
     </row>
     <row r="292" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B292" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C292" s="24"/>
       <c r="D292" s="24"/>
     </row>
     <row r="293" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B293" s="26"/>
       <c r="C293" s="26"/>
@@ -3870,10 +3936,10 @@
     </row>
     <row r="295" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C295" s="22"/>
       <c r="D295" s="22"/>
@@ -3881,7 +3947,7 @@
     <row r="296" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="23"/>
       <c r="B296" s="24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C296" s="24"/>
       <c r="D296" s="24"/>
@@ -3895,7 +3961,7 @@
     <row r="298" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="23"/>
       <c r="B298" s="25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -3903,7 +3969,7 @@
     <row r="299" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="23"/>
       <c r="B299" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -3926,7 +3992,9 @@
       <c r="A302" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B302" s="26"/>
+      <c r="B302" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C302" s="26"/>
       <c r="D302" s="26"/>
     </row>
@@ -3937,14 +4005,14 @@
     </row>
     <row r="304" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B304" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C304" s="24"/>
       <c r="D304" s="24"/>
     </row>
     <row r="305" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B305" s="26"/>
       <c r="C305" s="26"/>
@@ -3957,10 +4025,10 @@
     </row>
     <row r="307" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C307" s="22"/>
       <c r="D307" s="22"/>
@@ -3968,7 +4036,7 @@
     <row r="308" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="23"/>
       <c r="B308" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="24"/>
@@ -3982,7 +4050,7 @@
     <row r="310" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="23"/>
       <c r="B310" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C310" s="25"/>
       <c r="D310" s="25"/>
@@ -3990,7 +4058,7 @@
     <row r="311" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="23"/>
       <c r="B311" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C311" s="25"/>
       <c r="D311" s="25"/>
@@ -4013,7 +4081,9 @@
       <c r="A314" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B314" s="26"/>
+      <c r="B314" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C314" s="26"/>
       <c r="D314" s="26"/>
     </row>
@@ -4024,14 +4094,14 @@
     </row>
     <row r="316" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B316" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="24"/>
     </row>
     <row r="317" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B317" s="26"/>
       <c r="C317" s="26"/>
@@ -4044,10 +4114,10 @@
     </row>
     <row r="319" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C319" s="22"/>
       <c r="D319" s="22"/>
@@ -4055,7 +4125,7 @@
     <row r="320" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="23"/>
       <c r="B320" s="24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="24"/>
@@ -4069,7 +4139,7 @@
     <row r="322" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="23"/>
       <c r="B322" s="25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -4077,7 +4147,7 @@
     <row r="323" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="23"/>
       <c r="B323" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -4100,7 +4170,9 @@
       <c r="A326" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B326" s="26"/>
+      <c r="B326" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C326" s="26"/>
       <c r="D326" s="26"/>
     </row>
@@ -4111,14 +4183,14 @@
     </row>
     <row r="328" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B328" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="24"/>
     </row>
     <row r="329" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B329" s="26"/>
       <c r="C329" s="26"/>
@@ -4131,10 +4203,10 @@
     </row>
     <row r="331" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C331" s="22"/>
       <c r="D331" s="22"/>
@@ -4142,7 +4214,7 @@
     <row r="332" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="23"/>
       <c r="B332" s="24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="24"/>
@@ -4156,7 +4228,7 @@
     <row r="334" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="23"/>
       <c r="B334" s="25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C334" s="25"/>
       <c r="D334" s="25"/>
@@ -4164,7 +4236,7 @@
     <row r="335" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="23"/>
       <c r="B335" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C335" s="25"/>
       <c r="D335" s="25"/>
@@ -4187,7 +4259,9 @@
       <c r="A338" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B338" s="26"/>
+      <c r="B338" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C338" s="26"/>
       <c r="D338" s="26"/>
     </row>
@@ -4198,14 +4272,14 @@
     </row>
     <row r="340" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B340" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C340" s="24"/>
       <c r="D340" s="24"/>
     </row>
     <row r="341" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B341" s="26"/>
       <c r="C341" s="26"/>
@@ -4218,10 +4292,10 @@
     </row>
     <row r="343" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C343" s="22"/>
       <c r="D343" s="22"/>
@@ -4229,7 +4303,7 @@
     <row r="344" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="23"/>
       <c r="B344" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C344" s="24"/>
       <c r="D344" s="24"/>
@@ -4243,7 +4317,7 @@
     <row r="346" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="23"/>
       <c r="B346" s="25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="25"/>
@@ -4251,7 +4325,7 @@
     <row r="347" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="23"/>
       <c r="B347" s="25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="25"/>
@@ -4274,7 +4348,9 @@
       <c r="A350" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B350" s="26"/>
+      <c r="B350" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C350" s="26"/>
       <c r="D350" s="26"/>
     </row>
@@ -4285,14 +4361,14 @@
     </row>
     <row r="352" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B352" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="24"/>
     </row>
     <row r="353" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B353" s="26"/>
       <c r="C353" s="26"/>
@@ -4305,10 +4381,10 @@
     </row>
     <row r="355" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C355" s="22"/>
       <c r="D355" s="22"/>
@@ -4316,7 +4392,7 @@
     <row r="356" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="23"/>
       <c r="B356" s="24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="24"/>
@@ -4330,7 +4406,7 @@
     <row r="358" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="23"/>
       <c r="B358" s="25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="25"/>
@@ -4359,7 +4435,9 @@
       <c r="A362" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B362" s="26"/>
+      <c r="B362" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C362" s="26"/>
       <c r="D362" s="26"/>
     </row>
@@ -4370,14 +4448,14 @@
     </row>
     <row r="364" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B364" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C364" s="24"/>
       <c r="D364" s="24"/>
     </row>
     <row r="365" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B365" s="26"/>
       <c r="C365" s="26"/>
@@ -4393,7 +4471,7 @@
         <v>1.2</v>
       </c>
       <c r="B367" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C367" s="18"/>
       <c r="D367" s="18"/>
@@ -4401,7 +4479,7 @@
     </row>
     <row r="368" s="2" customFormat="true" ht="42.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B368" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C368" s="17"/>
       <c r="D368" s="17"/>
@@ -4412,10 +4490,10 @@
     </row>
     <row r="370" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C370" s="22"/>
       <c r="D370" s="22"/>
@@ -4423,7 +4501,7 @@
     <row r="371" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="23"/>
       <c r="B371" s="24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C371" s="24"/>
       <c r="D371" s="24"/>
@@ -4437,7 +4515,7 @@
     <row r="373" customFormat="false" ht="88.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="23"/>
       <c r="B373" s="25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C373" s="25"/>
       <c r="D373" s="25"/>
@@ -4445,7 +4523,7 @@
     <row r="374" customFormat="false" ht="89.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="23"/>
       <c r="B374" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="25"/>
@@ -4468,7 +4546,9 @@
       <c r="A377" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B377" s="26"/>
+      <c r="B377" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C377" s="26"/>
       <c r="D377" s="26"/>
     </row>
@@ -4479,16 +4559,18 @@
     </row>
     <row r="379" s="2" customFormat="true" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C379" s="24"/>
       <c r="D379" s="24"/>
     </row>
     <row r="380" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B380" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B380" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C380" s="26"/>
       <c r="D380" s="26"/>
     </row>
@@ -4497,10 +4579,10 @@
     </row>
     <row r="382" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="21" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B382" s="22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C382" s="22"/>
       <c r="D382" s="22"/>
@@ -4508,7 +4590,7 @@
     <row r="383" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="23"/>
       <c r="B383" s="24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C383" s="24"/>
       <c r="D383" s="24"/>
@@ -4522,7 +4604,7 @@
     <row r="385" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="23"/>
       <c r="B385" s="25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C385" s="25"/>
       <c r="D385" s="25"/>
@@ -4530,7 +4612,7 @@
     <row r="386" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="23"/>
       <c r="B386" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="25"/>
@@ -4553,7 +4635,9 @@
       <c r="A389" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B389" s="26"/>
+      <c r="B389" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
     </row>
@@ -4564,14 +4648,14 @@
     </row>
     <row r="391" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B391" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C391" s="24"/>
       <c r="D391" s="24"/>
     </row>
     <row r="392" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B392" s="26"/>
       <c r="C392" s="26"/>
@@ -4584,10 +4668,10 @@
     </row>
     <row r="394" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C394" s="22"/>
       <c r="D394" s="22"/>
@@ -4595,7 +4679,7 @@
     <row r="395" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="23"/>
       <c r="B395" s="24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C395" s="24"/>
       <c r="D395" s="24"/>
@@ -4609,7 +4693,7 @@
     <row r="397" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="23"/>
       <c r="B397" s="25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C397" s="25"/>
       <c r="D397" s="25"/>
@@ -4617,7 +4701,7 @@
     <row r="398" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="23"/>
       <c r="B398" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="25"/>
@@ -4640,7 +4724,9 @@
       <c r="A401" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B401" s="26"/>
+      <c r="B401" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
     </row>
@@ -4651,16 +4737,18 @@
     </row>
     <row r="403" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B403" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C403" s="24"/>
       <c r="D403" s="24"/>
     </row>
     <row r="404" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B404" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B404" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C404" s="26"/>
       <c r="D404" s="26"/>
     </row>
@@ -4671,10 +4759,10 @@
     </row>
     <row r="406" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B406" s="22" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C406" s="22"/>
       <c r="D406" s="22"/>
@@ -4682,7 +4770,7 @@
     <row r="407" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="23"/>
       <c r="B407" s="24" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C407" s="24"/>
       <c r="D407" s="24"/>
@@ -4696,7 +4784,7 @@
     <row r="409" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="23"/>
       <c r="B409" s="25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C409" s="25"/>
       <c r="D409" s="25"/>
@@ -4704,7 +4792,7 @@
     <row r="410" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="23"/>
       <c r="B410" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="25"/>
@@ -4727,7 +4815,9 @@
       <c r="A413" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B413" s="26"/>
+      <c r="B413" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C413" s="26"/>
       <c r="D413" s="26"/>
     </row>
@@ -4738,14 +4828,14 @@
     </row>
     <row r="415" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B415" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C415" s="24"/>
       <c r="D415" s="24"/>
     </row>
     <row r="416" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B416" s="26"/>
       <c r="C416" s="26"/>
@@ -4758,10 +4848,10 @@
     </row>
     <row r="418" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B418" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C418" s="22"/>
       <c r="D418" s="22"/>
@@ -4769,7 +4859,7 @@
     <row r="419" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="23"/>
       <c r="B419" s="24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C419" s="24"/>
       <c r="D419" s="24"/>
@@ -4783,7 +4873,7 @@
     <row r="421" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="23"/>
       <c r="B421" s="25" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="25"/>
@@ -4791,7 +4881,7 @@
     <row r="422" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="23"/>
       <c r="B422" s="25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="25"/>
@@ -4814,7 +4904,9 @@
       <c r="A425" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B425" s="26"/>
+      <c r="B425" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C425" s="26"/>
       <c r="D425" s="26"/>
     </row>
@@ -4825,16 +4917,18 @@
     </row>
     <row r="427" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B427" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C427" s="24"/>
       <c r="D427" s="24"/>
     </row>
     <row r="428" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B428" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B428" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C428" s="26"/>
       <c r="D428" s="26"/>
     </row>
@@ -4845,10 +4939,10 @@
     </row>
     <row r="430" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B430" s="22" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C430" s="22"/>
       <c r="D430" s="22"/>
@@ -4856,7 +4950,7 @@
     <row r="431" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="23"/>
       <c r="B431" s="24" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C431" s="24"/>
       <c r="D431" s="24"/>
@@ -4870,7 +4964,7 @@
     <row r="433" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="23"/>
       <c r="B433" s="25" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="25"/>
@@ -4878,7 +4972,7 @@
     <row r="434" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="23"/>
       <c r="B434" s="25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C434" s="25"/>
       <c r="D434" s="25"/>
@@ -4901,7 +4995,9 @@
       <c r="A437" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B437" s="26"/>
+      <c r="B437" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C437" s="26"/>
       <c r="D437" s="26"/>
     </row>
@@ -4912,14 +5008,14 @@
     </row>
     <row r="439" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B439" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C439" s="24"/>
       <c r="D439" s="24"/>
     </row>
     <row r="440" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B440" s="26"/>
       <c r="C440" s="26"/>
@@ -4932,10 +5028,10 @@
     </row>
     <row r="442" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="21" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B442" s="22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C442" s="22"/>
       <c r="D442" s="22"/>
@@ -4943,7 +5039,7 @@
     <row r="443" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="23"/>
       <c r="B443" s="24" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C443" s="24"/>
       <c r="D443" s="24"/>
@@ -4957,7 +5053,7 @@
     <row r="445" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="23"/>
       <c r="B445" s="25" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C445" s="25"/>
       <c r="D445" s="25"/>
@@ -4965,7 +5061,7 @@
     <row r="446" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="23"/>
       <c r="B446" s="25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="25"/>
@@ -4988,7 +5084,9 @@
       <c r="A449" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B449" s="26"/>
+      <c r="B449" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C449" s="26"/>
       <c r="D449" s="26"/>
     </row>
@@ -4999,16 +5097,18 @@
     </row>
     <row r="451" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B451" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C451" s="24"/>
       <c r="D451" s="24"/>
     </row>
     <row r="452" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B452" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B452" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C452" s="26"/>
       <c r="D452" s="26"/>
     </row>
@@ -5019,10 +5119,10 @@
     </row>
     <row r="454" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B454" s="22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C454" s="22"/>
       <c r="D454" s="22"/>
@@ -5030,7 +5130,7 @@
     <row r="455" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="23"/>
       <c r="B455" s="24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C455" s="24"/>
       <c r="D455" s="24"/>
@@ -5044,7 +5144,7 @@
     <row r="457" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="23"/>
       <c r="B457" s="25" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25"/>
@@ -5052,7 +5152,7 @@
     <row r="458" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="23"/>
       <c r="B458" s="25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C458" s="25"/>
       <c r="D458" s="25"/>
@@ -5075,7 +5175,9 @@
       <c r="A461" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B461" s="26"/>
+      <c r="B461" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C461" s="26"/>
       <c r="D461" s="26"/>
     </row>
@@ -5086,14 +5188,14 @@
     </row>
     <row r="463" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B463" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C463" s="24"/>
       <c r="D463" s="24"/>
     </row>
     <row r="464" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B464" s="26"/>
       <c r="C464" s="26"/>
@@ -5106,10 +5208,10 @@
     </row>
     <row r="466" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B466" s="22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C466" s="22"/>
       <c r="D466" s="22"/>
@@ -5117,7 +5219,7 @@
     <row r="467" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="23"/>
       <c r="B467" s="24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C467" s="24"/>
       <c r="D467" s="24"/>
@@ -5131,7 +5233,7 @@
     <row r="469" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="23"/>
       <c r="B469" s="25" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
@@ -5139,7 +5241,7 @@
     <row r="470" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="23"/>
       <c r="B470" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
@@ -5162,7 +5264,9 @@
       <c r="A473" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B473" s="26"/>
+      <c r="B473" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C473" s="26"/>
       <c r="D473" s="26"/>
     </row>
@@ -5173,16 +5277,18 @@
     </row>
     <row r="475" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B475" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C475" s="24"/>
       <c r="D475" s="24"/>
     </row>
     <row r="476" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B476" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B476" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C476" s="26"/>
       <c r="D476" s="26"/>
     </row>
@@ -5193,10 +5299,10 @@
     </row>
     <row r="478" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B478" s="22" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C478" s="22"/>
       <c r="D478" s="22"/>
@@ -5204,7 +5310,7 @@
     <row r="479" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="23"/>
       <c r="B479" s="24" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C479" s="24"/>
       <c r="D479" s="24"/>
@@ -5218,7 +5324,7 @@
     <row r="481" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="23"/>
       <c r="B481" s="25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
@@ -5226,7 +5332,7 @@
     <row r="482" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="23"/>
       <c r="B482" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
@@ -5249,7 +5355,9 @@
       <c r="A485" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B485" s="26"/>
+      <c r="B485" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C485" s="26"/>
       <c r="D485" s="26"/>
     </row>
@@ -5260,14 +5368,14 @@
     </row>
     <row r="487" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B487" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C487" s="24"/>
       <c r="D487" s="24"/>
     </row>
     <row r="488" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B488" s="26"/>
       <c r="C488" s="26"/>
@@ -5280,10 +5388,10 @@
     </row>
     <row r="490" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B490" s="22" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C490" s="22"/>
       <c r="D490" s="22"/>
@@ -5291,7 +5399,7 @@
     <row r="491" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="23"/>
       <c r="B491" s="24" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C491" s="24"/>
       <c r="D491" s="24"/>
@@ -5305,7 +5413,7 @@
     <row r="493" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="23"/>
       <c r="B493" s="25" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
@@ -5313,7 +5421,7 @@
     <row r="494" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="23"/>
       <c r="B494" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
@@ -5336,7 +5444,9 @@
       <c r="A497" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B497" s="26"/>
+      <c r="B497" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C497" s="26"/>
       <c r="D497" s="26"/>
     </row>
@@ -5347,16 +5457,18 @@
     </row>
     <row r="499" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B499" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C499" s="24"/>
       <c r="D499" s="24"/>
     </row>
     <row r="500" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B500" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B500" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C500" s="26"/>
       <c r="D500" s="26"/>
     </row>
@@ -5367,10 +5479,10 @@
     </row>
     <row r="502" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="21" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B502" s="22" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C502" s="22"/>
       <c r="D502" s="22"/>
@@ -5378,7 +5490,7 @@
     <row r="503" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="23"/>
       <c r="B503" s="24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C503" s="24"/>
       <c r="D503" s="24"/>
@@ -5392,7 +5504,7 @@
     <row r="505" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="23"/>
       <c r="B505" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="25"/>
@@ -5400,7 +5512,7 @@
     <row r="506" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="23"/>
       <c r="B506" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C506" s="25"/>
       <c r="D506" s="25"/>
@@ -5423,7 +5535,9 @@
       <c r="A509" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B509" s="26"/>
+      <c r="B509" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C509" s="26"/>
       <c r="D509" s="26"/>
     </row>
@@ -5434,14 +5548,14 @@
     </row>
     <row r="511" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B511" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C511" s="24"/>
       <c r="D511" s="24"/>
     </row>
     <row r="512" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B512" s="26"/>
       <c r="C512" s="26"/>
@@ -5454,10 +5568,10 @@
     </row>
     <row r="514" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B514" s="22" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C514" s="22"/>
       <c r="D514" s="22"/>
@@ -5465,7 +5579,7 @@
     <row r="515" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="23"/>
       <c r="B515" s="24" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C515" s="24"/>
       <c r="D515" s="24"/>
@@ -5479,7 +5593,7 @@
     <row r="517" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="23"/>
       <c r="B517" s="25" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C517" s="25"/>
       <c r="D517" s="25"/>
@@ -5487,7 +5601,7 @@
     <row r="518" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="23"/>
       <c r="B518" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C518" s="25"/>
       <c r="D518" s="25"/>
@@ -5510,7 +5624,9 @@
       <c r="A521" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B521" s="26"/>
+      <c r="B521" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C521" s="26"/>
       <c r="D521" s="26"/>
     </row>
@@ -5521,14 +5637,14 @@
     </row>
     <row r="523" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B523" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C523" s="24"/>
       <c r="D523" s="24"/>
     </row>
     <row r="524" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B524" s="26"/>
       <c r="C524" s="26"/>
@@ -5541,10 +5657,10 @@
     </row>
     <row r="526" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B526" s="22" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C526" s="22"/>
       <c r="D526" s="22"/>
@@ -5552,7 +5668,7 @@
     <row r="527" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="23"/>
       <c r="B527" s="24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C527" s="24"/>
       <c r="D527" s="24"/>
@@ -5566,7 +5682,7 @@
     <row r="529" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="23"/>
       <c r="B529" s="25" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C529" s="25"/>
       <c r="D529" s="25"/>
@@ -5574,7 +5690,7 @@
     <row r="530" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="23"/>
       <c r="B530" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C530" s="25"/>
       <c r="D530" s="25"/>
@@ -5597,7 +5713,9 @@
       <c r="A533" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B533" s="26"/>
+      <c r="B533" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C533" s="26"/>
       <c r="D533" s="26"/>
     </row>
@@ -5608,16 +5726,18 @@
     </row>
     <row r="535" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B535" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C535" s="24"/>
       <c r="D535" s="24"/>
     </row>
     <row r="536" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B536" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B536" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C536" s="26"/>
       <c r="D536" s="26"/>
     </row>
@@ -5628,10 +5748,10 @@
     </row>
     <row r="538" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B538" s="22" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C538" s="22"/>
       <c r="D538" s="22"/>
@@ -5639,7 +5759,7 @@
     <row r="539" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="23"/>
       <c r="B539" s="24" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C539" s="24"/>
       <c r="D539" s="24"/>
@@ -5653,7 +5773,7 @@
     <row r="541" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="23"/>
       <c r="B541" s="25" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C541" s="25"/>
       <c r="D541" s="25"/>
@@ -5661,7 +5781,7 @@
     <row r="542" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="23"/>
       <c r="B542" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C542" s="25"/>
       <c r="D542" s="25"/>
@@ -5684,7 +5804,9 @@
       <c r="A545" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B545" s="26"/>
+      <c r="B545" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C545" s="26"/>
       <c r="D545" s="26"/>
     </row>
@@ -5695,14 +5817,14 @@
     </row>
     <row r="547" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B547" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C547" s="24"/>
       <c r="D547" s="24"/>
     </row>
     <row r="548" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B548" s="26"/>
       <c r="C548" s="26"/>
@@ -5715,10 +5837,10 @@
     </row>
     <row r="550" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B550" s="22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C550" s="22"/>
       <c r="D550" s="22"/>
@@ -5726,7 +5848,7 @@
     <row r="551" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="23"/>
       <c r="B551" s="24" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C551" s="24"/>
       <c r="D551" s="24"/>
@@ -5740,7 +5862,7 @@
     <row r="553" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="23"/>
       <c r="B553" s="25" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C553" s="25"/>
       <c r="D553" s="25"/>
@@ -5748,7 +5870,7 @@
     <row r="554" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="23"/>
       <c r="B554" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C554" s="25"/>
       <c r="D554" s="25"/>
@@ -5771,7 +5893,9 @@
       <c r="A557" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B557" s="26"/>
+      <c r="B557" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C557" s="26"/>
       <c r="D557" s="26"/>
     </row>
@@ -5782,16 +5906,18 @@
     </row>
     <row r="559" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B559" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C559" s="24"/>
       <c r="D559" s="24"/>
     </row>
     <row r="560" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B560" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B560" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C560" s="26"/>
       <c r="D560" s="26"/>
     </row>
@@ -5802,10 +5928,10 @@
     </row>
     <row r="562" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B562" s="22" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C562" s="22"/>
       <c r="D562" s="22"/>
@@ -5813,7 +5939,7 @@
     <row r="563" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="23"/>
       <c r="B563" s="24" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C563" s="24"/>
       <c r="D563" s="24"/>
@@ -5827,7 +5953,7 @@
     <row r="565" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="23"/>
       <c r="B565" s="25" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C565" s="25"/>
       <c r="D565" s="25"/>
@@ -5835,7 +5961,7 @@
     <row r="566" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="23"/>
       <c r="B566" s="25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C566" s="25"/>
       <c r="D566" s="25"/>
@@ -5858,7 +5984,9 @@
       <c r="A569" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B569" s="26"/>
+      <c r="B569" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C569" s="26"/>
       <c r="D569" s="26"/>
     </row>
@@ -5869,16 +5997,18 @@
     </row>
     <row r="571" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B571" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C571" s="24"/>
       <c r="D571" s="24"/>
     </row>
     <row r="572" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B572" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B572" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C572" s="26"/>
       <c r="D572" s="26"/>
     </row>
@@ -5889,10 +6019,10 @@
     </row>
     <row r="574" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="21" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B574" s="22" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C574" s="22"/>
       <c r="D574" s="22"/>
@@ -5900,7 +6030,7 @@
     <row r="575" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="23"/>
       <c r="B575" s="24" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C575" s="24"/>
       <c r="D575" s="24"/>
@@ -5914,7 +6044,7 @@
     <row r="577" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="23"/>
       <c r="B577" s="25" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C577" s="25"/>
       <c r="D577" s="25"/>
@@ -5922,7 +6052,7 @@
     <row r="578" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="23"/>
       <c r="B578" s="25" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C578" s="25"/>
       <c r="D578" s="25"/>
@@ -5945,7 +6075,9 @@
       <c r="A581" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B581" s="26"/>
+      <c r="B581" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C581" s="26"/>
       <c r="D581" s="26"/>
     </row>
@@ -5956,14 +6088,14 @@
     </row>
     <row r="583" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B583" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C583" s="24"/>
       <c r="D583" s="24"/>
     </row>
     <row r="584" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B584" s="26"/>
       <c r="C584" s="26"/>
@@ -5976,10 +6108,10 @@
     </row>
     <row r="586" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="21" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B586" s="22" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C586" s="22"/>
       <c r="D586" s="22"/>
@@ -5987,7 +6119,7 @@
     <row r="587" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="23"/>
       <c r="B587" s="24" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C587" s="24"/>
       <c r="D587" s="24"/>
@@ -6001,7 +6133,7 @@
     <row r="589" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="23"/>
       <c r="B589" s="25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C589" s="25"/>
       <c r="D589" s="25"/>
@@ -6009,7 +6141,7 @@
     <row r="590" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="23"/>
       <c r="B590" s="25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C590" s="25"/>
       <c r="D590" s="25"/>
@@ -6032,7 +6164,9 @@
       <c r="A593" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B593" s="26"/>
+      <c r="B593" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C593" s="26"/>
       <c r="D593" s="26"/>
     </row>
@@ -6043,16 +6177,18 @@
     </row>
     <row r="595" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B595" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C595" s="24"/>
       <c r="D595" s="24"/>
     </row>
     <row r="596" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B596" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B596" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C596" s="26"/>
       <c r="D596" s="26"/>
     </row>
@@ -6063,10 +6199,10 @@
     </row>
     <row r="598" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B598" s="22" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C598" s="22"/>
       <c r="D598" s="22"/>
@@ -6074,7 +6210,7 @@
     <row r="599" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="23"/>
       <c r="B599" s="24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C599" s="24"/>
       <c r="D599" s="24"/>
@@ -6088,7 +6224,7 @@
     <row r="601" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="23"/>
       <c r="B601" s="25" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C601" s="25"/>
       <c r="D601" s="25"/>
@@ -6096,7 +6232,7 @@
     <row r="602" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="23"/>
       <c r="B602" s="25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C602" s="25"/>
       <c r="D602" s="25"/>
@@ -6119,7 +6255,9 @@
       <c r="A605" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B605" s="26"/>
+      <c r="B605" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C605" s="26"/>
       <c r="D605" s="26"/>
     </row>
@@ -6130,14 +6268,14 @@
     </row>
     <row r="607" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B607" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C607" s="24"/>
       <c r="D607" s="24"/>
     </row>
     <row r="608" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B608" s="26"/>
       <c r="C608" s="26"/>
@@ -6150,10 +6288,10 @@
     </row>
     <row r="610" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="21" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B610" s="22" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C610" s="22"/>
       <c r="D610" s="22"/>
@@ -6161,7 +6299,7 @@
     <row r="611" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="23"/>
       <c r="B611" s="24" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C611" s="24"/>
       <c r="D611" s="24"/>
@@ -6175,7 +6313,7 @@
     <row r="613" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="23"/>
       <c r="B613" s="25" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C613" s="25"/>
       <c r="D613" s="25"/>
@@ -6183,7 +6321,7 @@
     <row r="614" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="23"/>
       <c r="B614" s="25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C614" s="25"/>
       <c r="D614" s="25"/>
@@ -6206,7 +6344,9 @@
       <c r="A617" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B617" s="26"/>
+      <c r="B617" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C617" s="26"/>
       <c r="D617" s="26"/>
     </row>
@@ -6217,16 +6357,18 @@
     </row>
     <row r="619" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B619" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C619" s="24"/>
       <c r="D619" s="24"/>
     </row>
     <row r="620" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B620" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B620" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C620" s="26"/>
       <c r="D620" s="26"/>
     </row>
@@ -6237,10 +6379,10 @@
     </row>
     <row r="622" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B622" s="22" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C622" s="22"/>
       <c r="D622" s="22"/>
@@ -6248,7 +6390,7 @@
     <row r="623" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="23"/>
       <c r="B623" s="24" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C623" s="24"/>
       <c r="D623" s="24"/>
@@ -6262,7 +6404,7 @@
     <row r="625" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="23"/>
       <c r="B625" s="25" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C625" s="25"/>
       <c r="D625" s="25"/>
@@ -6270,7 +6412,7 @@
     <row r="626" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="23"/>
       <c r="B626" s="25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C626" s="25"/>
       <c r="D626" s="25"/>
@@ -6293,7 +6435,9 @@
       <c r="A629" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B629" s="26"/>
+      <c r="B629" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C629" s="26"/>
       <c r="D629" s="26"/>
     </row>
@@ -6304,14 +6448,14 @@
     </row>
     <row r="631" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B631" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C631" s="24"/>
       <c r="D631" s="24"/>
     </row>
     <row r="632" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B632" s="26"/>
       <c r="C632" s="26"/>
@@ -6324,10 +6468,10 @@
     </row>
     <row r="634" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B634" s="22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C634" s="22"/>
       <c r="D634" s="22"/>
@@ -6335,7 +6479,7 @@
     <row r="635" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="23"/>
       <c r="B635" s="24" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C635" s="24"/>
       <c r="D635" s="24"/>
@@ -6349,7 +6493,7 @@
     <row r="637" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="23"/>
       <c r="B637" s="25" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C637" s="25"/>
       <c r="D637" s="25"/>
@@ -6357,7 +6501,7 @@
     <row r="638" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="23"/>
       <c r="B638" s="25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C638" s="25"/>
       <c r="D638" s="25"/>
@@ -6380,7 +6524,9 @@
       <c r="A641" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B641" s="26"/>
+      <c r="B641" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C641" s="26"/>
       <c r="D641" s="26"/>
     </row>
@@ -6391,16 +6537,18 @@
     </row>
     <row r="643" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B643" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C643" s="24"/>
       <c r="D643" s="24"/>
     </row>
     <row r="644" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B644" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B644" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C644" s="26"/>
       <c r="D644" s="26"/>
     </row>
@@ -6411,10 +6559,10 @@
     </row>
     <row r="646" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B646" s="22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C646" s="22"/>
       <c r="D646" s="22"/>
@@ -6422,7 +6570,7 @@
     <row r="647" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="23"/>
       <c r="B647" s="24" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C647" s="24"/>
       <c r="D647" s="24"/>
@@ -6436,7 +6584,7 @@
     <row r="649" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="23"/>
       <c r="B649" s="25" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C649" s="25"/>
       <c r="D649" s="25"/>
@@ -6444,7 +6592,7 @@
     <row r="650" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="23"/>
       <c r="B650" s="25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C650" s="25"/>
       <c r="D650" s="25"/>
@@ -6467,7 +6615,9 @@
       <c r="A653" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B653" s="26"/>
+      <c r="B653" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C653" s="26"/>
       <c r="D653" s="26"/>
     </row>
@@ -6478,14 +6628,14 @@
     </row>
     <row r="655" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B655" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C655" s="24"/>
       <c r="D655" s="24"/>
     </row>
     <row r="656" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B656" s="26"/>
       <c r="C656" s="26"/>
@@ -6498,10 +6648,10 @@
     </row>
     <row r="658" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="21" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B658" s="22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C658" s="22"/>
       <c r="D658" s="22"/>
@@ -6509,7 +6659,7 @@
     <row r="659" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="23"/>
       <c r="B659" s="24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C659" s="24"/>
       <c r="D659" s="24"/>
@@ -6523,7 +6673,7 @@
     <row r="661" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="23"/>
       <c r="B661" s="25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C661" s="25"/>
       <c r="D661" s="25"/>
@@ -6531,7 +6681,7 @@
     <row r="662" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="23"/>
       <c r="B662" s="25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C662" s="25"/>
       <c r="D662" s="25"/>
@@ -6554,7 +6704,9 @@
       <c r="A665" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B665" s="26"/>
+      <c r="B665" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C665" s="26"/>
       <c r="D665" s="26"/>
     </row>
@@ -6565,16 +6717,18 @@
     </row>
     <row r="667" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B667" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C667" s="24"/>
       <c r="D667" s="24"/>
     </row>
     <row r="668" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B668" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B668" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C668" s="26"/>
       <c r="D668" s="26"/>
     </row>
@@ -6585,10 +6739,10 @@
     </row>
     <row r="670" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B670" s="22" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C670" s="22"/>
       <c r="D670" s="22"/>
@@ -6596,7 +6750,7 @@
     <row r="671" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="23"/>
       <c r="B671" s="24" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C671" s="24"/>
       <c r="D671" s="24"/>
@@ -6610,7 +6764,7 @@
     <row r="673" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="23"/>
       <c r="B673" s="25" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C673" s="25"/>
       <c r="D673" s="25"/>
@@ -6618,7 +6772,7 @@
     <row r="674" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="23"/>
       <c r="B674" s="25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C674" s="25"/>
       <c r="D674" s="25"/>
@@ -6641,7 +6795,9 @@
       <c r="A677" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B677" s="26"/>
+      <c r="B677" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C677" s="26"/>
       <c r="D677" s="26"/>
     </row>
@@ -6652,14 +6808,14 @@
     </row>
     <row r="679" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B679" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C679" s="24"/>
       <c r="D679" s="24"/>
     </row>
     <row r="680" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B680" s="26"/>
       <c r="C680" s="26"/>
@@ -6672,10 +6828,10 @@
     </row>
     <row r="682" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="21" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B682" s="22" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C682" s="22"/>
       <c r="D682" s="22"/>
@@ -6683,7 +6839,7 @@
     <row r="683" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="23"/>
       <c r="B683" s="24" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C683" s="24"/>
       <c r="D683" s="24"/>
@@ -6697,7 +6853,7 @@
     <row r="685" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="23"/>
       <c r="B685" s="25" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C685" s="25"/>
       <c r="D685" s="25"/>
@@ -6705,7 +6861,7 @@
     <row r="686" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="23"/>
       <c r="B686" s="25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C686" s="25"/>
       <c r="D686" s="25"/>
@@ -6728,7 +6884,9 @@
       <c r="A689" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B689" s="26"/>
+      <c r="B689" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C689" s="26"/>
       <c r="D689" s="26"/>
     </row>
@@ -6739,16 +6897,18 @@
     </row>
     <row r="691" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B691" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C691" s="24"/>
       <c r="D691" s="24"/>
     </row>
     <row r="692" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B692" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B692" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C692" s="26"/>
       <c r="D692" s="26"/>
     </row>
@@ -6759,10 +6919,10 @@
     </row>
     <row r="694" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="21" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B694" s="22" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C694" s="22"/>
       <c r="D694" s="22"/>
@@ -6770,7 +6930,7 @@
     <row r="695" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="23"/>
       <c r="B695" s="24" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C695" s="24"/>
       <c r="D695" s="24"/>
@@ -6784,7 +6944,7 @@
     <row r="697" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="23"/>
       <c r="B697" s="25" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C697" s="25"/>
       <c r="D697" s="25"/>
@@ -6792,7 +6952,7 @@
     <row r="698" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="23"/>
       <c r="B698" s="25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C698" s="25"/>
       <c r="D698" s="25"/>
@@ -6815,7 +6975,9 @@
       <c r="A701" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B701" s="26"/>
+      <c r="B701" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C701" s="26"/>
       <c r="D701" s="26"/>
     </row>
@@ -6826,14 +6988,14 @@
     </row>
     <row r="703" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B703" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C703" s="24"/>
       <c r="D703" s="24"/>
     </row>
     <row r="704" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B704" s="26"/>
       <c r="C704" s="26"/>
@@ -6846,10 +7008,10 @@
     </row>
     <row r="706" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="21" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B706" s="22" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C706" s="22"/>
       <c r="D706" s="22"/>
@@ -6857,7 +7019,7 @@
     <row r="707" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="23"/>
       <c r="B707" s="24" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C707" s="24"/>
       <c r="D707" s="24"/>
@@ -6871,7 +7033,7 @@
     <row r="709" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="23"/>
       <c r="B709" s="25" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C709" s="25"/>
       <c r="D709" s="25"/>
@@ -6879,7 +7041,7 @@
     <row r="710" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="23"/>
       <c r="B710" s="25" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C710" s="25"/>
       <c r="D710" s="25"/>
@@ -6902,7 +7064,9 @@
       <c r="A713" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B713" s="26"/>
+      <c r="B713" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C713" s="26"/>
       <c r="D713" s="26"/>
     </row>
@@ -6913,16 +7077,18 @@
     </row>
     <row r="715" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B715" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C715" s="24"/>
       <c r="D715" s="24"/>
     </row>
     <row r="716" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B716" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B716" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="C716" s="26"/>
       <c r="D716" s="26"/>
     </row>
@@ -6933,10 +7099,10 @@
     </row>
     <row r="718" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="21" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B718" s="22" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C718" s="22"/>
       <c r="D718" s="22"/>
@@ -6944,7 +7110,7 @@
     <row r="719" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="23"/>
       <c r="B719" s="24" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C719" s="24"/>
       <c r="D719" s="24"/>
@@ -6958,7 +7124,7 @@
     <row r="721" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="23"/>
       <c r="B721" s="25" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C721" s="25"/>
       <c r="D721" s="25"/>
@@ -6966,7 +7132,7 @@
     <row r="722" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="23"/>
       <c r="B722" s="25" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C722" s="25"/>
       <c r="D722" s="25"/>
@@ -6989,7 +7155,9 @@
       <c r="A725" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B725" s="26"/>
+      <c r="B725" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C725" s="26"/>
       <c r="D725" s="26"/>
     </row>
@@ -7000,14 +7168,14 @@
     </row>
     <row r="727" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B727" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C727" s="24"/>
       <c r="D727" s="24"/>
     </row>
     <row r="728" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B728" s="26"/>
       <c r="C728" s="26"/>
@@ -7020,10 +7188,10 @@
     </row>
     <row r="730" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B730" s="22" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C730" s="22"/>
       <c r="D730" s="22"/>
@@ -7031,7 +7199,7 @@
     <row r="731" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="23"/>
       <c r="B731" s="24" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C731" s="24"/>
       <c r="D731" s="24"/>
@@ -7045,7 +7213,7 @@
     <row r="733" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="23"/>
       <c r="B733" s="25" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C733" s="25"/>
       <c r="D733" s="25"/>
@@ -7053,7 +7221,7 @@
     <row r="734" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="23"/>
       <c r="B734" s="25" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C734" s="25"/>
       <c r="D734" s="25"/>
@@ -7076,7 +7244,9 @@
       <c r="A737" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B737" s="26"/>
+      <c r="B737" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="C737" s="26"/>
       <c r="D737" s="26"/>
     </row>
@@ -7087,16 +7257,18 @@
     </row>
     <row r="739" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B739" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C739" s="24"/>
       <c r="D739" s="24"/>
     </row>
     <row r="740" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B740" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="B740" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="C740" s="26"/>
       <c r="D740" s="26"/>
     </row>
@@ -7107,10 +7279,10 @@
     </row>
     <row r="742" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="21" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B742" s="22" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C742" s="22"/>
       <c r="D742" s="22"/>
@@ -7118,7 +7290,7 @@
     <row r="743" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="23"/>
       <c r="B743" s="24" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C743" s="24"/>
       <c r="D743" s="24"/>
@@ -7132,7 +7304,7 @@
     <row r="745" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="23"/>
       <c r="B745" s="25" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C745" s="25"/>
       <c r="D745" s="25"/>
@@ -7140,7 +7312,7 @@
     <row r="746" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="23"/>
       <c r="B746" s="25" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C746" s="25"/>
       <c r="D746" s="25"/>
@@ -7163,7 +7335,9 @@
       <c r="A749" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B749" s="26"/>
+      <c r="B749" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C749" s="26"/>
       <c r="D749" s="26"/>
     </row>
@@ -7174,14 +7348,14 @@
     </row>
     <row r="751" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B751" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C751" s="24"/>
       <c r="D751" s="24"/>
     </row>
     <row r="752" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B752" s="26"/>
       <c r="C752" s="26"/>
@@ -7194,10 +7368,10 @@
     </row>
     <row r="754" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="21" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B754" s="22" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C754" s="22"/>
       <c r="D754" s="22"/>
@@ -7205,7 +7379,7 @@
     <row r="755" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="23"/>
       <c r="B755" s="24" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C755" s="24"/>
       <c r="D755" s="24"/>
@@ -7219,7 +7393,7 @@
     <row r="757" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="23"/>
       <c r="B757" s="25" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C757" s="25"/>
       <c r="D757" s="25"/>
@@ -7227,7 +7401,7 @@
     <row r="758" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="23"/>
       <c r="B758" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C758" s="25"/>
       <c r="D758" s="25"/>
@@ -7250,7 +7424,9 @@
       <c r="A761" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B761" s="26"/>
+      <c r="B761" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C761" s="26"/>
       <c r="D761" s="26"/>
     </row>
@@ -7261,14 +7437,14 @@
     </row>
     <row r="763" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B763" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C763" s="24"/>
       <c r="D763" s="24"/>
     </row>
     <row r="764" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B764" s="26"/>
       <c r="C764" s="26"/>
@@ -7281,10 +7457,10 @@
     </row>
     <row r="766" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="21" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B766" s="22" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C766" s="22"/>
       <c r="D766" s="22"/>
@@ -7292,7 +7468,7 @@
     <row r="767" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="23"/>
       <c r="B767" s="24" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C767" s="24"/>
       <c r="D767" s="24"/>
@@ -7306,7 +7482,7 @@
     <row r="769" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="23"/>
       <c r="B769" s="25" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C769" s="25"/>
       <c r="D769" s="25"/>
@@ -7314,7 +7490,7 @@
     <row r="770" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="23"/>
       <c r="B770" s="25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C770" s="25"/>
       <c r="D770" s="25"/>
@@ -7337,7 +7513,9 @@
       <c r="A773" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B773" s="26"/>
+      <c r="B773" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C773" s="26"/>
       <c r="D773" s="26"/>
     </row>
@@ -7348,14 +7526,14 @@
     </row>
     <row r="775" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B775" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C775" s="24"/>
       <c r="D775" s="24"/>
     </row>
     <row r="776" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B776" s="26"/>
       <c r="C776" s="26"/>
@@ -7368,10 +7546,10 @@
     </row>
     <row r="778" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="21" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B778" s="22" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C778" s="22"/>
       <c r="D778" s="22"/>
@@ -7379,7 +7557,7 @@
     <row r="779" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="23"/>
       <c r="B779" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C779" s="24"/>
       <c r="D779" s="24"/>
@@ -7393,7 +7571,7 @@
     <row r="781" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="23"/>
       <c r="B781" s="25" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C781" s="25"/>
       <c r="D781" s="25"/>
@@ -7401,7 +7579,7 @@
     <row r="782" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="23"/>
       <c r="B782" s="25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C782" s="25"/>
       <c r="D782" s="25"/>
@@ -7424,7 +7602,9 @@
       <c r="A785" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B785" s="26"/>
+      <c r="B785" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C785" s="26"/>
       <c r="D785" s="26"/>
     </row>
@@ -7435,14 +7615,14 @@
     </row>
     <row r="787" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B787" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C787" s="24"/>
       <c r="D787" s="24"/>
     </row>
     <row r="788" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B788" s="26"/>
       <c r="C788" s="26"/>
@@ -7455,10 +7635,10 @@
     </row>
     <row r="790" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="21" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B790" s="22" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C790" s="22"/>
       <c r="D790" s="22"/>
@@ -7466,7 +7646,7 @@
     <row r="791" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="23"/>
       <c r="B791" s="24" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C791" s="24"/>
       <c r="D791" s="24"/>
@@ -7480,7 +7660,7 @@
     <row r="793" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="23"/>
       <c r="B793" s="25" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C793" s="25"/>
       <c r="D793" s="25"/>
@@ -7488,7 +7668,7 @@
     <row r="794" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="23"/>
       <c r="B794" s="25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C794" s="25"/>
       <c r="D794" s="25"/>
@@ -7511,7 +7691,9 @@
       <c r="A797" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B797" s="26"/>
+      <c r="B797" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C797" s="26"/>
       <c r="D797" s="26"/>
     </row>
@@ -7522,14 +7704,14 @@
     </row>
     <row r="799" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B799" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C799" s="24"/>
       <c r="D799" s="24"/>
     </row>
     <row r="800" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B800" s="26"/>
       <c r="C800" s="26"/>
@@ -7542,10 +7724,10 @@
     </row>
     <row r="802" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="21" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B802" s="22" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C802" s="22"/>
       <c r="D802" s="22"/>
@@ -7553,7 +7735,7 @@
     <row r="803" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="23"/>
       <c r="B803" s="24" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C803" s="24"/>
       <c r="D803" s="24"/>
@@ -7567,7 +7749,7 @@
     <row r="805" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="23"/>
       <c r="B805" s="25" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C805" s="25"/>
       <c r="D805" s="25"/>
@@ -7575,7 +7757,7 @@
     <row r="806" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="23"/>
       <c r="B806" s="25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C806" s="25"/>
       <c r="D806" s="25"/>
@@ -7598,7 +7780,9 @@
       <c r="A809" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B809" s="26"/>
+      <c r="B809" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C809" s="26"/>
       <c r="D809" s="26"/>
     </row>
@@ -7609,14 +7793,14 @@
     </row>
     <row r="811" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B811" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C811" s="24"/>
       <c r="D811" s="24"/>
     </row>
     <row r="812" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B812" s="26"/>
       <c r="C812" s="26"/>
@@ -7629,10 +7813,10 @@
     </row>
     <row r="814" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="21" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B814" s="22" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C814" s="22"/>
       <c r="D814" s="22"/>
@@ -7640,7 +7824,7 @@
     <row r="815" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="23"/>
       <c r="B815" s="24" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C815" s="24"/>
       <c r="D815" s="24"/>
@@ -7654,7 +7838,7 @@
     <row r="817" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="23"/>
       <c r="B817" s="25" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C817" s="25"/>
       <c r="D817" s="25"/>
@@ -7662,7 +7846,7 @@
     <row r="818" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="23"/>
       <c r="B818" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C818" s="25"/>
       <c r="D818" s="25"/>
@@ -7685,7 +7869,9 @@
       <c r="A821" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B821" s="26"/>
+      <c r="B821" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C821" s="26"/>
       <c r="D821" s="26"/>
     </row>
@@ -7696,14 +7882,14 @@
     </row>
     <row r="823" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B823" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C823" s="24"/>
       <c r="D823" s="24"/>
     </row>
     <row r="824" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B824" s="26"/>
       <c r="C824" s="26"/>
@@ -7716,10 +7902,10 @@
     </row>
     <row r="826" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B826" s="22" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C826" s="22"/>
       <c r="D826" s="22"/>
@@ -7727,7 +7913,7 @@
     <row r="827" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="23"/>
       <c r="B827" s="24" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C827" s="24"/>
       <c r="D827" s="24"/>
@@ -7741,7 +7927,7 @@
     <row r="829" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="23"/>
       <c r="B829" s="25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C829" s="25"/>
       <c r="D829" s="25"/>
@@ -7749,7 +7935,7 @@
     <row r="830" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="23"/>
       <c r="B830" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C830" s="25"/>
       <c r="D830" s="25"/>
@@ -7772,7 +7958,9 @@
       <c r="A833" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B833" s="26"/>
+      <c r="B833" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C833" s="26"/>
       <c r="D833" s="26"/>
     </row>
@@ -7783,14 +7971,14 @@
     </row>
     <row r="835" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B835" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C835" s="24"/>
       <c r="D835" s="24"/>
     </row>
     <row r="836" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B836" s="26"/>
       <c r="C836" s="26"/>
@@ -7803,10 +7991,10 @@
     </row>
     <row r="838" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="21" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B838" s="22" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C838" s="22"/>
       <c r="D838" s="22"/>
@@ -7814,7 +8002,7 @@
     <row r="839" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="23"/>
       <c r="B839" s="24" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C839" s="24"/>
       <c r="D839" s="24"/>
@@ -7828,7 +8016,7 @@
     <row r="841" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="23"/>
       <c r="B841" s="25" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C841" s="25"/>
       <c r="D841" s="25"/>
@@ -7836,7 +8024,7 @@
     <row r="842" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="23"/>
       <c r="B842" s="25" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C842" s="25"/>
       <c r="D842" s="25"/>
@@ -7859,7 +8047,9 @@
       <c r="A845" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B845" s="26"/>
+      <c r="B845" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C845" s="26"/>
       <c r="D845" s="26"/>
     </row>
@@ -7870,14 +8060,14 @@
     </row>
     <row r="847" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B847" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C847" s="24"/>
       <c r="D847" s="24"/>
     </row>
     <row r="848" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B848" s="26"/>
       <c r="C848" s="26"/>
@@ -7890,10 +8080,10 @@
     </row>
     <row r="850" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="21" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B850" s="22" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C850" s="22"/>
       <c r="D850" s="22"/>
@@ -7901,7 +8091,7 @@
     <row r="851" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="23"/>
       <c r="B851" s="24" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C851" s="24"/>
       <c r="D851" s="24"/>
@@ -7915,7 +8105,7 @@
     <row r="853" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="23"/>
       <c r="B853" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C853" s="25"/>
       <c r="D853" s="25"/>
@@ -7923,7 +8113,7 @@
     <row r="854" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="23"/>
       <c r="B854" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C854" s="25"/>
       <c r="D854" s="25"/>
@@ -7946,7 +8136,9 @@
       <c r="A857" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B857" s="26"/>
+      <c r="B857" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C857" s="26"/>
       <c r="D857" s="26"/>
     </row>
@@ -7957,14 +8149,14 @@
     </row>
     <row r="859" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B859" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C859" s="24"/>
       <c r="D859" s="24"/>
     </row>
     <row r="860" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B860" s="26"/>
       <c r="C860" s="26"/>
@@ -7977,10 +8169,10 @@
     </row>
     <row r="862" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="21" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B862" s="22" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C862" s="22"/>
       <c r="D862" s="22"/>
@@ -7988,7 +8180,7 @@
     <row r="863" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="23"/>
       <c r="B863" s="24" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C863" s="24"/>
       <c r="D863" s="24"/>
@@ -8002,7 +8194,7 @@
     <row r="865" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="23"/>
       <c r="B865" s="25" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C865" s="25"/>
       <c r="D865" s="25"/>
@@ -8010,7 +8202,7 @@
     <row r="866" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="23"/>
       <c r="B866" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C866" s="25"/>
       <c r="D866" s="25"/>
@@ -8033,7 +8225,9 @@
       <c r="A869" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B869" s="26"/>
+      <c r="B869" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C869" s="26"/>
       <c r="D869" s="26"/>
     </row>
@@ -8044,14 +8238,14 @@
     </row>
     <row r="871" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B871" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C871" s="24"/>
       <c r="D871" s="24"/>
     </row>
     <row r="872" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B872" s="26"/>
       <c r="C872" s="26"/>
@@ -8064,10 +8258,10 @@
     </row>
     <row r="874" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="21" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B874" s="22" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C874" s="22"/>
       <c r="D874" s="22"/>
@@ -8075,7 +8269,7 @@
     <row r="875" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="23"/>
       <c r="B875" s="24" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C875" s="24"/>
       <c r="D875" s="24"/>
@@ -8089,7 +8283,7 @@
     <row r="877" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="23"/>
       <c r="B877" s="25" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C877" s="25"/>
       <c r="D877" s="25"/>
@@ -8097,7 +8291,7 @@
     <row r="878" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="23"/>
       <c r="B878" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C878" s="25"/>
       <c r="D878" s="25"/>
@@ -8120,7 +8314,9 @@
       <c r="A881" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B881" s="26"/>
+      <c r="B881" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C881" s="26"/>
       <c r="D881" s="26"/>
     </row>
@@ -8131,14 +8327,14 @@
     </row>
     <row r="883" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B883" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C883" s="24"/>
       <c r="D883" s="24"/>
     </row>
     <row r="884" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B884" s="26"/>
       <c r="C884" s="26"/>
@@ -8151,10 +8347,10 @@
     </row>
     <row r="886" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="21" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B886" s="22" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C886" s="22"/>
       <c r="D886" s="22"/>
@@ -8162,7 +8358,7 @@
     <row r="887" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="23"/>
       <c r="B887" s="24" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C887" s="24"/>
       <c r="D887" s="24"/>
@@ -8176,7 +8372,7 @@
     <row r="889" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="23"/>
       <c r="B889" s="25" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C889" s="25"/>
       <c r="D889" s="25"/>
@@ -8184,7 +8380,7 @@
     <row r="890" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="23"/>
       <c r="B890" s="25" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C890" s="25"/>
       <c r="D890" s="25"/>
@@ -8207,7 +8403,9 @@
       <c r="A893" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B893" s="26"/>
+      <c r="B893" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="C893" s="26"/>
       <c r="D893" s="26"/>
     </row>
@@ -8218,14 +8416,14 @@
     </row>
     <row r="895" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B895" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C895" s="24"/>
       <c r="D895" s="24"/>
     </row>
     <row r="896" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B896" s="26"/>
       <c r="C896" s="26"/>
@@ -8238,10 +8436,10 @@
     </row>
     <row r="898" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="21" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B898" s="22" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C898" s="22"/>
       <c r="D898" s="22"/>
@@ -8249,7 +8447,7 @@
     <row r="899" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="23"/>
       <c r="B899" s="24" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C899" s="24"/>
       <c r="D899" s="24"/>
@@ -8263,7 +8461,7 @@
     <row r="901" customFormat="false" ht="92.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="23"/>
       <c r="B901" s="25" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C901" s="25"/>
       <c r="D901" s="25"/>
@@ -8271,7 +8469,7 @@
     <row r="902" customFormat="false" ht="86.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="23"/>
       <c r="B902" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C902" s="25"/>
       <c r="D902" s="25"/>
@@ -8294,7 +8492,9 @@
       <c r="A905" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B905" s="26"/>
+      <c r="B905" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C905" s="26"/>
       <c r="D905" s="26"/>
     </row>
@@ -8305,14 +8505,14 @@
     </row>
     <row r="907" s="2" customFormat="true" ht="59.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B907" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C907" s="24"/>
       <c r="D907" s="24"/>
     </row>
     <row r="908" customFormat="false" ht="130.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B908" s="26"/>
       <c r="C908" s="26"/>
@@ -8331,7 +8531,7 @@
     </row>
     <row r="911" customFormat="false" ht="43.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B911" s="29" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C911" s="29"/>
       <c r="D911" s="29"/>
